--- a/Project/Assets/output/random_search.xlsx
+++ b/Project/Assets/output/random_search.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>86c4cc10-2a98-467d-af1f-9b3b89265cd2</t>
+          <t>f25e28e9-8d9b-47b5-a69a-025a82c53417</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,7 +517,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3cc220fb-660b-42ff-a972-d66211f3bec8</t>
+          <t>d2758cfc-c496-44b1-9a71-ca16cabb9f23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8d19ddcb-663d-476b-9320-e3c3f3e6292f</t>
+          <t>bd7153dc-f8c9-41c7-9aca-c02918699d46</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,7 +587,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2b1c826b-aa1e-4e48-abf8-0a06afea1c7a</t>
+          <t>1d9d7c86-9c98-4b45-94b0-03147a04ebb2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>30.92</v>
+        <v>61.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>000069f9-2884-4ff5-9e5c-a63abe60cb9a</t>
+          <t>a0e79d85-9412-453d-9f23-04fae6f00596</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -647,17 +647,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>61.84</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1a07df60-1366-44c3-8739-258270246528</t>
+          <t>4fdf651f-8e20-4ac5-ac9d-4f0dda45b9df</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -682,17 +682,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>38.2</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>39bec442-9208-48e8-a2fd-558c3ea73341</t>
+          <t>9832c1cb-a999-4094-a9e8-bf11d9790e4e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dd0826c1-34a3-4493-acc5-c0ff34c6e712</t>
+          <t>051f459b-c02a-4364-bafa-f7db991d89c1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9933c8c7-7b3e-4e2e-bf3d-e248a5e917cd</t>
+          <t>f7444063-4a61-4a75-9739-f47bdcc0da33</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -787,17 +787,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15.28</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cdd92b70-4a19-46f7-9a95-3021756be716</t>
+          <t>4d16a37b-0e20-4484-9f0a-52e019857b74</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
